--- a/fam.xlsx
+++ b/fam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisa\PythonProjects\dz_fam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5948F86F-B69B-4573-87FF-A9D9E8B27EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D975A9-257D-481C-9C34-6887BDCB811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="14400" windowHeight="8272" xr2:uid="{57F40B3F-DB02-4E16-8908-74B1B874B1C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Марка материала</t>
   </si>
@@ -73,13 +73,16 @@
   </si>
   <si>
     <t>Rzi, мкм</t>
+  </si>
+  <si>
+    <t>АМг6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +116,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39CBAAC-1FDF-4760-8132-255A16A0FD88}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -641,10 +651,199 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>90</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>400</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>315</v>
+      </c>
+      <c r="O4" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>400</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>315</v>
+      </c>
+      <c r="O5" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>400</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>315</v>
+      </c>
+      <c r="O6" s="4">
+        <v>130</v>
+      </c>
+    </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>400</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>315</v>
+      </c>
+      <c r="O7" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/fam.xlsx
+++ b/fam.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12315" yWindow="1590" windowWidth="6623" windowHeight="8378" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Дано" sheetId="1" state="visible" r:id="rId1"/>
@@ -74,17 +74,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,455 +463,411 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="14.53125" customWidth="1" style="4" min="1" max="1"/>
-    <col width="10.73046875" customWidth="1" style="4" min="2" max="3"/>
-    <col width="7.73046875" customWidth="1" style="4" min="4" max="4"/>
-    <col width="8.33203125" customWidth="1" style="4" min="5" max="5"/>
-    <col width="9.06640625" customWidth="1" style="4" min="6" max="7"/>
-    <col width="7.3984375" customWidth="1" style="4" min="8" max="8"/>
-    <col width="7.53125" customWidth="1" style="4" min="9" max="9"/>
-    <col width="9.53125" customWidth="1" style="4" min="10" max="10"/>
-    <col width="9.06640625" customWidth="1" style="4" min="11" max="11"/>
-    <col width="9.53125" customWidth="1" style="4" min="12" max="12"/>
-    <col width="9.06640625" customWidth="1" style="4" min="13" max="16"/>
-    <col width="9.06640625" customWidth="1" style="4" min="17" max="16384"/>
+    <col width="14.53125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.73046875" customWidth="1" style="1" min="2" max="3"/>
+    <col width="7.73046875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.33203125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9.06640625" customWidth="1" style="1" min="6" max="7"/>
+    <col width="7.3984375" customWidth="1" style="1" min="8" max="8"/>
+    <col width="7.53125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.53125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.06640625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="9.53125" customWidth="1" style="1" min="12" max="12"/>
+    <col width="9.06640625" customWidth="1" style="1" min="13" max="17"/>
+    <col width="9.06640625" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Rzi, мкм</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Rzb, мкм</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>λ, град</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>ϕ, град</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>ϕ1, град</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>γ, град</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>r, мм</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>ρ, мм</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>hz, мм</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>v, м/мин</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>t, мм</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>s, мм/об</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>σb, Мпа</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>σ02, МПа</t>
         </is>
       </c>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+      <c r="R1" s="4" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="n">
+      <c r="A2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="n">
+      <c r="F2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="I2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M2" s="4" t="n">
+      <c r="L2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="1" t="n">
         <v>290</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="I3" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="1" t="n">
         <v>290</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="F4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="4" t="n">
+      <c r="I4" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="1" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="A5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="I5" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="1" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="1" t="n">
         <v>-7</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="n">
+      <c r="F6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="4" t="n">
+      <c r="I6" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="1" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="1" t="n">
         <v>-10</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="4" t="n">
+      <c r="F7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="4" t="n">
+      <c r="I7" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="1" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="n">
+      <c r="A8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="n">
+      <c r="F8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J8" s="4" t="n">
+      <c r="I8" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="4" t="n">
+      <c r="L8" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="1" t="n">
         <v>130</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/fam.xlsx
+++ b/fam.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,51 @@
         <v>130</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>350</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>400</v>
+      </c>
+      <c r="N9" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/fam.xlsx
+++ b/fam.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,7 +914,6 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/fam.xlsx
+++ b/fam.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -51,6 +51,15 @@
       <color theme="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -72,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -84,6 +93,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,7 +478,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -481,8 +493,8 @@
     <col width="9.53125" customWidth="1" style="1" min="10" max="10"/>
     <col width="9.06640625" customWidth="1" style="1" min="11" max="11"/>
     <col width="9.53125" customWidth="1" style="1" min="12" max="12"/>
-    <col width="9.06640625" customWidth="1" style="1" min="13" max="17"/>
-    <col width="9.06640625" customWidth="1" style="1" min="18" max="16384"/>
+    <col width="9.06640625" customWidth="1" style="1" min="13" max="18"/>
+    <col width="9.06640625" customWidth="1" style="1" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -554,6 +566,11 @@
       <c r="N1" s="4" t="inlineStr">
         <is>
           <t>σ02, МПа</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>HB, Мпа</t>
         </is>
       </c>
       <c r="P1" s="4" t="n"/>
@@ -605,6 +622,9 @@
       <c r="N2" s="1" t="n">
         <v>290</v>
       </c>
+      <c r="O2" s="1" t="n">
+        <v>1050</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -649,6 +669,9 @@
       <c r="N3" s="1" t="n">
         <v>290</v>
       </c>
+      <c r="O3" s="1" t="n">
+        <v>1050</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -693,6 +716,9 @@
       <c r="N4" s="1" t="n">
         <v>130</v>
       </c>
+      <c r="O4" s="1" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -737,6 +763,9 @@
       <c r="N5" s="1" t="n">
         <v>130</v>
       </c>
+      <c r="O5" s="1" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -781,6 +810,9 @@
       <c r="N6" s="1" t="n">
         <v>130</v>
       </c>
+      <c r="O6" s="1" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -825,6 +857,9 @@
       <c r="N7" s="1" t="n">
         <v>130</v>
       </c>
+      <c r="O7" s="1" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -869,6 +904,9 @@
       <c r="N8" s="1" t="n">
         <v>130</v>
       </c>
+      <c r="O8" s="1" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -912,6 +950,9 @@
       </c>
       <c r="N9" t="n">
         <v>290</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
